--- a/quantification/cptacAvsB_lab3/experimental_annotation.xlsx
+++ b/quantification/cptacAvsB_lab3/experimental_annotation.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26230"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Dropbox/statOmics/proteomicsShortCourse/data/quantification/cptacAvsB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lclement/Downloads/pda-data/quantification/cptacAvsB_lab3/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6031646B-E448-6C4C-96AD-59A8176C0CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15820" windowHeight="10340"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22740" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -29,6 +25,24 @@
     <t>run</t>
   </si>
   <si>
+    <t>Intensity.6A_7</t>
+  </si>
+  <si>
+    <t>Intensity.6A_8</t>
+  </si>
+  <si>
+    <t>Intensity.6A_9</t>
+  </si>
+  <si>
+    <t>Intensity.6B_7</t>
+  </si>
+  <si>
+    <t>Intensity.6B_8</t>
+  </si>
+  <si>
+    <t>Intensity.6B_9</t>
+  </si>
+  <si>
     <t>treatment</t>
   </si>
   <si>
@@ -36,30 +50,12 @@
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>6A_7</t>
-  </si>
-  <si>
-    <t>6A_8</t>
-  </si>
-  <si>
-    <t>6A_9</t>
-  </si>
-  <si>
-    <t>6B_7</t>
-  </si>
-  <si>
-    <t>6B_8</t>
-  </si>
-  <si>
-    <t>6B_9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,10 +92,13 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -383,69 +382,69 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
